--- a/ondebmh/onde_10102022 belum.xlsx
+++ b/ondebmh/onde_10102022 belum.xlsx
@@ -433,13 +433,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B103"/>
+  <dimension ref="A1:C103"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A28" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1:C103"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="14.55"/>
   </cols>
@@ -451,6 +451,10 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" s="0" t="str">
+        <f aca="false">"('"&amp;A1&amp;"','"&amp;B1&amp;"','2022-10-10'),"</f>
+        <v>('bapak/ibu','6281230757951','2022-10-10'),</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
@@ -459,6 +463,10 @@
       <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="C2" s="0" t="str">
+        <f aca="false">"('"&amp;A2&amp;"','"&amp;B2&amp;"','2022-10-10'),"</f>
+        <v>('bapak/ibu','6281230757956','2022-10-10'),</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
@@ -467,6 +475,10 @@
       <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="C3" s="0" t="str">
+        <f aca="false">"('"&amp;A3&amp;"','"&amp;B3&amp;"','2022-10-10'),"</f>
+        <v>('bapak/ibu','6281230757959','2022-10-10'),</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
@@ -475,6 +487,10 @@
       <c r="B4" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="C4" s="0" t="str">
+        <f aca="false">"('"&amp;A4&amp;"','"&amp;B4&amp;"','2022-10-10'),"</f>
+        <v>('bapak/ibu','6281230757962','2022-10-10'),</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
@@ -483,6 +499,10 @@
       <c r="B5" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="C5" s="0" t="str">
+        <f aca="false">"('"&amp;A5&amp;"','"&amp;B5&amp;"','2022-10-10'),"</f>
+        <v>('bapak/ibu','6281230757971','2022-10-10'),</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
@@ -491,6 +511,10 @@
       <c r="B6" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="C6" s="0" t="str">
+        <f aca="false">"('"&amp;A6&amp;"','"&amp;B6&amp;"','2022-10-10'),"</f>
+        <v>('bapak/ibu','6281230757974','2022-10-10'),</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
@@ -499,6 +523,10 @@
       <c r="B7" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="C7" s="0" t="str">
+        <f aca="false">"('"&amp;A7&amp;"','"&amp;B7&amp;"','2022-10-10'),"</f>
+        <v>('bapak/ibu','6281230757977','2022-10-10'),</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
@@ -507,6 +535,10 @@
       <c r="B8" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="C8" s="0" t="str">
+        <f aca="false">"('"&amp;A8&amp;"','"&amp;B8&amp;"','2022-10-10'),"</f>
+        <v>('bapak/ibu','6281230757993','2022-10-10'),</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
@@ -515,6 +547,10 @@
       <c r="B9" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="C9" s="0" t="str">
+        <f aca="false">"('"&amp;A9&amp;"','"&amp;B9&amp;"','2022-10-10'),"</f>
+        <v>('bapak/ibu','6281230757996','2022-10-10'),</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
@@ -523,6 +559,10 @@
       <c r="B10" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="C10" s="0" t="str">
+        <f aca="false">"('"&amp;A10&amp;"','"&amp;B10&amp;"','2022-10-10'),"</f>
+        <v>('bapak/ibu','6281230757997','2022-10-10'),</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
@@ -531,6 +571,10 @@
       <c r="B11" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="C11" s="0" t="str">
+        <f aca="false">"('"&amp;A11&amp;"','"&amp;B11&amp;"','2022-10-10'),"</f>
+        <v>('bapak/ibu','6281230757998','2022-10-10'),</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
@@ -539,6 +583,10 @@
       <c r="B12" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="C12" s="0" t="str">
+        <f aca="false">"('"&amp;A12&amp;"','"&amp;B12&amp;"','2022-10-10'),"</f>
+        <v>('bapak/ibu','6281230757902','2022-10-10'),</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
@@ -547,6 +595,10 @@
       <c r="B13" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="C13" s="0" t="str">
+        <f aca="false">"('"&amp;A13&amp;"','"&amp;B13&amp;"','2022-10-10'),"</f>
+        <v>('bapak/ibu','6281230757915','2022-10-10'),</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
@@ -555,6 +607,10 @@
       <c r="B14" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="C14" s="0" t="str">
+        <f aca="false">"('"&amp;A14&amp;"','"&amp;B14&amp;"','2022-10-10'),"</f>
+        <v>('bapak/ibu','6281230757928','2022-10-10'),</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
@@ -563,6 +619,10 @@
       <c r="B15" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="C15" s="0" t="str">
+        <f aca="false">"('"&amp;A15&amp;"','"&amp;B15&amp;"','2022-10-10'),"</f>
+        <v>('bapak/ibu','6281230757937','2022-10-10'),</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
@@ -571,6 +631,10 @@
       <c r="B16" s="1" t="s">
         <v>16</v>
       </c>
+      <c r="C16" s="0" t="str">
+        <f aca="false">"('"&amp;A16&amp;"','"&amp;B16&amp;"','2022-10-10'),"</f>
+        <v>('bapak/ibu','6281230757946','2022-10-10'),</v>
+      </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
@@ -579,6 +643,10 @@
       <c r="B17" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="C17" s="0" t="str">
+        <f aca="false">"('"&amp;A17&amp;"','"&amp;B17&amp;"','2022-10-10'),"</f>
+        <v>('bapak/ibu','6281230757947','2022-10-10'),</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
@@ -587,6 +655,10 @@
       <c r="B18" s="1" t="s">
         <v>18</v>
       </c>
+      <c r="C18" s="0" t="str">
+        <f aca="false">"('"&amp;A18&amp;"','"&amp;B18&amp;"','2022-10-10'),"</f>
+        <v>('bapak/ibu','6281230757948','2022-10-10'),</v>
+      </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
@@ -595,6 +667,10 @@
       <c r="B19" s="1" t="s">
         <v>19</v>
       </c>
+      <c r="C19" s="0" t="str">
+        <f aca="false">"('"&amp;A19&amp;"','"&amp;B19&amp;"','2022-10-10'),"</f>
+        <v>('bapak/ibu','6281230757068','2022-10-10'),</v>
+      </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
@@ -603,6 +679,10 @@
       <c r="B20" s="1" t="s">
         <v>20</v>
       </c>
+      <c r="C20" s="0" t="str">
+        <f aca="false">"('"&amp;A20&amp;"','"&amp;B20&amp;"','2022-10-10'),"</f>
+        <v>('bapak/ibu','6281230757074','2022-10-10'),</v>
+      </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
@@ -611,6 +691,10 @@
       <c r="B21" s="1" t="s">
         <v>21</v>
       </c>
+      <c r="C21" s="0" t="str">
+        <f aca="false">"('"&amp;A21&amp;"','"&amp;B21&amp;"','2022-10-10'),"</f>
+        <v>('bapak/ibu','6281230757075','2022-10-10'),</v>
+      </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
@@ -619,6 +703,10 @@
       <c r="B22" s="1" t="s">
         <v>22</v>
       </c>
+      <c r="C22" s="0" t="str">
+        <f aca="false">"('"&amp;A22&amp;"','"&amp;B22&amp;"','2022-10-10'),"</f>
+        <v>('bapak/ibu','6281230757070','2022-10-10'),</v>
+      </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
@@ -627,6 +715,10 @@
       <c r="B23" s="1" t="s">
         <v>23</v>
       </c>
+      <c r="C23" s="0" t="str">
+        <f aca="false">"('"&amp;A23&amp;"','"&amp;B23&amp;"','2022-10-10'),"</f>
+        <v>('bapak/ibu','6281230757083','2022-10-10'),</v>
+      </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
@@ -635,6 +727,10 @@
       <c r="B24" s="1" t="s">
         <v>24</v>
       </c>
+      <c r="C24" s="0" t="str">
+        <f aca="false">"('"&amp;A24&amp;"','"&amp;B24&amp;"','2022-10-10'),"</f>
+        <v>('bapak/ibu','6281230757089','2022-10-10'),</v>
+      </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
@@ -643,6 +739,10 @@
       <c r="B25" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="C25" s="0" t="str">
+        <f aca="false">"('"&amp;A25&amp;"','"&amp;B25&amp;"','2022-10-10'),"</f>
+        <v>('bapak/ibu','6281230757094','2022-10-10'),</v>
+      </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
@@ -651,6 +751,10 @@
       <c r="B26" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="C26" s="0" t="str">
+        <f aca="false">"('"&amp;A26&amp;"','"&amp;B26&amp;"','2022-10-10'),"</f>
+        <v>('bapak/ibu','6281230757095','2022-10-10'),</v>
+      </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
@@ -659,6 +763,10 @@
       <c r="B27" s="1" t="s">
         <v>27</v>
       </c>
+      <c r="C27" s="0" t="str">
+        <f aca="false">"('"&amp;A27&amp;"','"&amp;B27&amp;"','2022-10-10'),"</f>
+        <v>('bapak/ibu','6281230757098','2022-10-10'),</v>
+      </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
@@ -667,6 +775,10 @@
       <c r="B28" s="1" t="s">
         <v>28</v>
       </c>
+      <c r="C28" s="0" t="str">
+        <f aca="false">"('"&amp;A28&amp;"','"&amp;B28&amp;"','2022-10-10'),"</f>
+        <v>('bapak/ibu','6281230757099','2022-10-10'),</v>
+      </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
@@ -675,6 +787,10 @@
       <c r="B29" s="1" t="s">
         <v>29</v>
       </c>
+      <c r="C29" s="0" t="str">
+        <f aca="false">"('"&amp;A29&amp;"','"&amp;B29&amp;"','2022-10-10'),"</f>
+        <v>('bapak/ibu','6281230757001','2022-10-10'),</v>
+      </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
@@ -683,6 +799,10 @@
       <c r="B30" s="1" t="s">
         <v>30</v>
       </c>
+      <c r="C30" s="0" t="str">
+        <f aca="false">"('"&amp;A30&amp;"','"&amp;B30&amp;"','2022-10-10'),"</f>
+        <v>('bapak/ibu','6281230757004','2022-10-10'),</v>
+      </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
@@ -691,6 +811,10 @@
       <c r="B31" s="1" t="s">
         <v>31</v>
       </c>
+      <c r="C31" s="0" t="str">
+        <f aca="false">"('"&amp;A31&amp;"','"&amp;B31&amp;"','2022-10-10'),"</f>
+        <v>('bapak/ibu','6281230757005','2022-10-10'),</v>
+      </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
@@ -699,6 +823,10 @@
       <c r="B32" s="1" t="s">
         <v>32</v>
       </c>
+      <c r="C32" s="0" t="str">
+        <f aca="false">"('"&amp;A32&amp;"','"&amp;B32&amp;"','2022-10-10'),"</f>
+        <v>('bapak/ibu','6281230757006','2022-10-10'),</v>
+      </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
@@ -707,6 +835,10 @@
       <c r="B33" s="1" t="s">
         <v>33</v>
       </c>
+      <c r="C33" s="0" t="str">
+        <f aca="false">"('"&amp;A33&amp;"','"&amp;B33&amp;"','2022-10-10'),"</f>
+        <v>('bapak/ibu','6281230757007','2022-10-10'),</v>
+      </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
@@ -715,6 +847,10 @@
       <c r="B34" s="1" t="s">
         <v>34</v>
       </c>
+      <c r="C34" s="0" t="str">
+        <f aca="false">"('"&amp;A34&amp;"','"&amp;B34&amp;"','2022-10-10'),"</f>
+        <v>('bapak/ibu','6281230757000','2022-10-10'),</v>
+      </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
@@ -723,6 +859,10 @@
       <c r="B35" s="1" t="s">
         <v>35</v>
       </c>
+      <c r="C35" s="0" t="str">
+        <f aca="false">"('"&amp;A35&amp;"','"&amp;B35&amp;"','2022-10-10'),"</f>
+        <v>('bapak/ibu','6281230757012','2022-10-10'),</v>
+      </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
@@ -731,6 +871,10 @@
       <c r="B36" s="1" t="s">
         <v>36</v>
       </c>
+      <c r="C36" s="0" t="str">
+        <f aca="false">"('"&amp;A36&amp;"','"&amp;B36&amp;"','2022-10-10'),"</f>
+        <v>('bapak/ibu','6281230757021','2022-10-10'),</v>
+      </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
@@ -739,6 +883,10 @@
       <c r="B37" s="1" t="s">
         <v>37</v>
       </c>
+      <c r="C37" s="0" t="str">
+        <f aca="false">"('"&amp;A37&amp;"','"&amp;B37&amp;"','2022-10-10'),"</f>
+        <v>('bapak/ibu','6281230757023','2022-10-10'),</v>
+      </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
@@ -747,6 +895,10 @@
       <c r="B38" s="1" t="s">
         <v>38</v>
       </c>
+      <c r="C38" s="0" t="str">
+        <f aca="false">"('"&amp;A38&amp;"','"&amp;B38&amp;"','2022-10-10'),"</f>
+        <v>('bapak/ibu','6281230757033','2022-10-10'),</v>
+      </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
@@ -755,6 +907,10 @@
       <c r="B39" s="1" t="s">
         <v>39</v>
       </c>
+      <c r="C39" s="0" t="str">
+        <f aca="false">"('"&amp;A39&amp;"','"&amp;B39&amp;"','2022-10-10'),"</f>
+        <v>('bapak/ibu','6281230757034','2022-10-10'),</v>
+      </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
@@ -763,6 +919,10 @@
       <c r="B40" s="1" t="s">
         <v>40</v>
       </c>
+      <c r="C40" s="0" t="str">
+        <f aca="false">"('"&amp;A40&amp;"','"&amp;B40&amp;"','2022-10-10'),"</f>
+        <v>('bapak/ibu','6281230757035','2022-10-10'),</v>
+      </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
@@ -771,6 +931,10 @@
       <c r="B41" s="1" t="s">
         <v>41</v>
       </c>
+      <c r="C41" s="0" t="str">
+        <f aca="false">"('"&amp;A41&amp;"','"&amp;B41&amp;"','2022-10-10'),"</f>
+        <v>('bapak/ibu','6281230757036','2022-10-10'),</v>
+      </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
@@ -779,6 +943,10 @@
       <c r="B42" s="1" t="s">
         <v>42</v>
       </c>
+      <c r="C42" s="0" t="str">
+        <f aca="false">"('"&amp;A42&amp;"','"&amp;B42&amp;"','2022-10-10'),"</f>
+        <v>('bapak/ibu','6281230757030','2022-10-10'),</v>
+      </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
@@ -787,6 +955,10 @@
       <c r="B43" s="1" t="s">
         <v>43</v>
       </c>
+      <c r="C43" s="0" t="str">
+        <f aca="false">"('"&amp;A43&amp;"','"&amp;B43&amp;"','2022-10-10'),"</f>
+        <v>('bapak/ibu','6281230757041','2022-10-10'),</v>
+      </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
@@ -795,6 +967,10 @@
       <c r="B44" s="1" t="s">
         <v>44</v>
       </c>
+      <c r="C44" s="0" t="str">
+        <f aca="false">"('"&amp;A44&amp;"','"&amp;B44&amp;"','2022-10-10'),"</f>
+        <v>('bapak/ibu','6281230757042','2022-10-10'),</v>
+      </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
@@ -803,6 +979,10 @@
       <c r="B45" s="1" t="s">
         <v>45</v>
       </c>
+      <c r="C45" s="0" t="str">
+        <f aca="false">"('"&amp;A45&amp;"','"&amp;B45&amp;"','2022-10-10'),"</f>
+        <v>('bapak/ibu','6281230757048','2022-10-10'),</v>
+      </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
@@ -811,6 +991,10 @@
       <c r="B46" s="1" t="s">
         <v>46</v>
       </c>
+      <c r="C46" s="0" t="str">
+        <f aca="false">"('"&amp;A46&amp;"','"&amp;B46&amp;"','2022-10-10'),"</f>
+        <v>('bapak/ibu','6281230757040','2022-10-10'),</v>
+      </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
@@ -819,6 +1003,10 @@
       <c r="B47" s="1" t="s">
         <v>47</v>
       </c>
+      <c r="C47" s="0" t="str">
+        <f aca="false">"('"&amp;A47&amp;"','"&amp;B47&amp;"','2022-10-10'),"</f>
+        <v>('bapak/ibu','6281230758152','2022-10-10'),</v>
+      </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
@@ -827,6 +1015,10 @@
       <c r="B48" s="1" t="s">
         <v>48</v>
       </c>
+      <c r="C48" s="0" t="str">
+        <f aca="false">"('"&amp;A48&amp;"','"&amp;B48&amp;"','2022-10-10'),"</f>
+        <v>('bapak/ibu','6281230758170','2022-10-10'),</v>
+      </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
@@ -835,6 +1027,10 @@
       <c r="B49" s="1" t="s">
         <v>49</v>
       </c>
+      <c r="C49" s="0" t="str">
+        <f aca="false">"('"&amp;A49&amp;"','"&amp;B49&amp;"','2022-10-10'),"</f>
+        <v>('bapak/ibu','6281230758181','2022-10-10'),</v>
+      </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
@@ -843,6 +1039,10 @@
       <c r="B50" s="1" t="s">
         <v>50</v>
       </c>
+      <c r="C50" s="0" t="str">
+        <f aca="false">"('"&amp;A50&amp;"','"&amp;B50&amp;"','2022-10-10'),"</f>
+        <v>('bapak/ibu','6281230758182','2022-10-10'),</v>
+      </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
@@ -851,6 +1051,10 @@
       <c r="B51" s="1" t="s">
         <v>51</v>
       </c>
+      <c r="C51" s="0" t="str">
+        <f aca="false">"('"&amp;A51&amp;"','"&amp;B51&amp;"','2022-10-10'),"</f>
+        <v>('bapak/ibu','6281230758187','2022-10-10'),</v>
+      </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
@@ -859,6 +1063,10 @@
       <c r="B52" s="1" t="s">
         <v>52</v>
       </c>
+      <c r="C52" s="0" t="str">
+        <f aca="false">"('"&amp;A52&amp;"','"&amp;B52&amp;"','2022-10-10'),"</f>
+        <v>('bapak/ibu','6281230758111','2022-10-10'),</v>
+      </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
@@ -867,6 +1075,10 @@
       <c r="B53" s="1" t="s">
         <v>53</v>
       </c>
+      <c r="C53" s="0" t="str">
+        <f aca="false">"('"&amp;A53&amp;"','"&amp;B53&amp;"','2022-10-10'),"</f>
+        <v>('bapak/ibu','6281230758131','2022-10-10'),</v>
+      </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
@@ -875,6 +1087,10 @@
       <c r="B54" s="1" t="s">
         <v>54</v>
       </c>
+      <c r="C54" s="0" t="str">
+        <f aca="false">"('"&amp;A54&amp;"','"&amp;B54&amp;"','2022-10-10'),"</f>
+        <v>('bapak/ibu','6281230758133','2022-10-10'),</v>
+      </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
@@ -883,6 +1099,10 @@
       <c r="B55" s="1" t="s">
         <v>55</v>
       </c>
+      <c r="C55" s="0" t="str">
+        <f aca="false">"('"&amp;A55&amp;"','"&amp;B55&amp;"','2022-10-10'),"</f>
+        <v>('bapak/ibu','6281230758136','2022-10-10'),</v>
+      </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
@@ -891,6 +1111,10 @@
       <c r="B56" s="1" t="s">
         <v>56</v>
       </c>
+      <c r="C56" s="0" t="str">
+        <f aca="false">"('"&amp;A56&amp;"','"&amp;B56&amp;"','2022-10-10'),"</f>
+        <v>('bapak/ibu','6281230758144','2022-10-10'),</v>
+      </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
@@ -899,6 +1123,10 @@
       <c r="B57" s="1" t="s">
         <v>57</v>
       </c>
+      <c r="C57" s="0" t="str">
+        <f aca="false">"('"&amp;A57&amp;"','"&amp;B57&amp;"','2022-10-10'),"</f>
+        <v>('bapak/ibu','6281230758250','2022-10-10'),</v>
+      </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
@@ -907,6 +1135,10 @@
       <c r="B58" s="1" t="s">
         <v>58</v>
       </c>
+      <c r="C58" s="0" t="str">
+        <f aca="false">"('"&amp;A58&amp;"','"&amp;B58&amp;"','2022-10-10'),"</f>
+        <v>('bapak/ibu','6281230758266','2022-10-10'),</v>
+      </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
@@ -915,6 +1147,10 @@
       <c r="B59" s="1" t="s">
         <v>59</v>
       </c>
+      <c r="C59" s="0" t="str">
+        <f aca="false">"('"&amp;A59&amp;"','"&amp;B59&amp;"','2022-10-10'),"</f>
+        <v>('bapak/ibu','6281230758267','2022-10-10'),</v>
+      </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
@@ -923,6 +1159,10 @@
       <c r="B60" s="1" t="s">
         <v>60</v>
       </c>
+      <c r="C60" s="0" t="str">
+        <f aca="false">"('"&amp;A60&amp;"','"&amp;B60&amp;"','2022-10-10'),"</f>
+        <v>('bapak/ibu','6281230758260','2022-10-10'),</v>
+      </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="s">
@@ -931,6 +1171,10 @@
       <c r="B61" s="1" t="s">
         <v>61</v>
       </c>
+      <c r="C61" s="0" t="str">
+        <f aca="false">"('"&amp;A61&amp;"','"&amp;B61&amp;"','2022-10-10'),"</f>
+        <v>('bapak/ibu','6281230758282','2022-10-10'),</v>
+      </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
@@ -939,6 +1183,10 @@
       <c r="B62" s="1" t="s">
         <v>62</v>
       </c>
+      <c r="C62" s="0" t="str">
+        <f aca="false">"('"&amp;A62&amp;"','"&amp;B62&amp;"','2022-10-10'),"</f>
+        <v>('bapak/ibu','6281230758285','2022-10-10'),</v>
+      </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="s">
@@ -947,6 +1195,10 @@
       <c r="B63" s="1" t="s">
         <v>63</v>
       </c>
+      <c r="C63" s="0" t="str">
+        <f aca="false">"('"&amp;A63&amp;"','"&amp;B63&amp;"','2022-10-10'),"</f>
+        <v>('bapak/ibu','6281230758286','2022-10-10'),</v>
+      </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="s">
@@ -955,6 +1207,10 @@
       <c r="B64" s="1" t="s">
         <v>64</v>
       </c>
+      <c r="C64" s="0" t="str">
+        <f aca="false">"('"&amp;A64&amp;"','"&amp;B64&amp;"','2022-10-10'),"</f>
+        <v>('bapak/ibu','6281230758299','2022-10-10'),</v>
+      </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
@@ -963,6 +1219,10 @@
       <c r="B65" s="1" t="s">
         <v>65</v>
       </c>
+      <c r="C65" s="0" t="str">
+        <f aca="false">"('"&amp;A65&amp;"','"&amp;B65&amp;"','2022-10-10'),"</f>
+        <v>('bapak/ibu','6281230758204','2022-10-10'),</v>
+      </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
@@ -971,6 +1231,10 @@
       <c r="B66" s="1" t="s">
         <v>66</v>
       </c>
+      <c r="C66" s="0" t="str">
+        <f aca="false">"('"&amp;A66&amp;"','"&amp;B66&amp;"','2022-10-10'),"</f>
+        <v>('bapak/ibu','6281230758210','2022-10-10'),</v>
+      </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="s">
@@ -979,6 +1243,10 @@
       <c r="B67" s="1" t="s">
         <v>67</v>
       </c>
+      <c r="C67" s="0" t="str">
+        <f aca="false">"('"&amp;A67&amp;"','"&amp;B67&amp;"','2022-10-10'),"</f>
+        <v>('bapak/ibu','6281230758234','2022-10-10'),</v>
+      </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="s">
@@ -987,6 +1255,10 @@
       <c r="B68" s="1" t="s">
         <v>68</v>
       </c>
+      <c r="C68" s="0" t="str">
+        <f aca="false">"('"&amp;A68&amp;"','"&amp;B68&amp;"','2022-10-10'),"</f>
+        <v>('bapak/ibu','6281230758353','2022-10-10'),</v>
+      </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="s">
@@ -995,6 +1267,10 @@
       <c r="B69" s="1" t="s">
         <v>69</v>
       </c>
+      <c r="C69" s="0" t="str">
+        <f aca="false">"('"&amp;A69&amp;"','"&amp;B69&amp;"','2022-10-10'),"</f>
+        <v>('bapak/ibu','6281230758355','2022-10-10'),</v>
+      </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="0" t="s">
@@ -1003,6 +1279,10 @@
       <c r="B70" s="1" t="s">
         <v>70</v>
       </c>
+      <c r="C70" s="0" t="str">
+        <f aca="false">"('"&amp;A70&amp;"','"&amp;B70&amp;"','2022-10-10'),"</f>
+        <v>('bapak/ibu','6281230758366','2022-10-10'),</v>
+      </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="s">
@@ -1011,6 +1291,10 @@
       <c r="B71" s="1" t="s">
         <v>71</v>
       </c>
+      <c r="C71" s="0" t="str">
+        <f aca="false">"('"&amp;A71&amp;"','"&amp;B71&amp;"','2022-10-10'),"</f>
+        <v>('bapak/ibu','6281230758375','2022-10-10'),</v>
+      </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="s">
@@ -1019,6 +1303,10 @@
       <c r="B72" s="1" t="s">
         <v>72</v>
       </c>
+      <c r="C72" s="0" t="str">
+        <f aca="false">"('"&amp;A72&amp;"','"&amp;B72&amp;"','2022-10-10'),"</f>
+        <v>('bapak/ibu','6281230758377','2022-10-10'),</v>
+      </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="0" t="s">
@@ -1027,6 +1315,10 @@
       <c r="B73" s="1" t="s">
         <v>73</v>
       </c>
+      <c r="C73" s="0" t="str">
+        <f aca="false">"('"&amp;A73&amp;"','"&amp;B73&amp;"','2022-10-10'),"</f>
+        <v>('bapak/ibu','6281230758383','2022-10-10'),</v>
+      </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="0" t="s">
@@ -1035,6 +1327,10 @@
       <c r="B74" s="1" t="s">
         <v>74</v>
       </c>
+      <c r="C74" s="0" t="str">
+        <f aca="false">"('"&amp;A74&amp;"','"&amp;B74&amp;"','2022-10-10'),"</f>
+        <v>('bapak/ibu','6281230758386','2022-10-10'),</v>
+      </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="0" t="s">
@@ -1043,6 +1339,10 @@
       <c r="B75" s="1" t="s">
         <v>75</v>
       </c>
+      <c r="C75" s="0" t="str">
+        <f aca="false">"('"&amp;A75&amp;"','"&amp;B75&amp;"','2022-10-10'),"</f>
+        <v>('bapak/ibu','6281230758397','2022-10-10'),</v>
+      </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="0" t="s">
@@ -1051,6 +1351,10 @@
       <c r="B76" s="1" t="s">
         <v>76</v>
       </c>
+      <c r="C76" s="0" t="str">
+        <f aca="false">"('"&amp;A76&amp;"','"&amp;B76&amp;"','2022-10-10'),"</f>
+        <v>('bapak/ibu','6281230758307','2022-10-10'),</v>
+      </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="0" t="s">
@@ -1059,6 +1363,10 @@
       <c r="B77" s="1" t="s">
         <v>77</v>
       </c>
+      <c r="C77" s="0" t="str">
+        <f aca="false">"('"&amp;A77&amp;"','"&amp;B77&amp;"','2022-10-10'),"</f>
+        <v>('bapak/ibu','6281230758308','2022-10-10'),</v>
+      </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="0" t="s">
@@ -1067,6 +1375,10 @@
       <c r="B78" s="1" t="s">
         <v>78</v>
       </c>
+      <c r="C78" s="0" t="str">
+        <f aca="false">"('"&amp;A78&amp;"','"&amp;B78&amp;"','2022-10-10'),"</f>
+        <v>('bapak/ibu','6281230758309','2022-10-10'),</v>
+      </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="0" t="s">
@@ -1075,6 +1387,10 @@
       <c r="B79" s="1" t="s">
         <v>79</v>
       </c>
+      <c r="C79" s="0" t="str">
+        <f aca="false">"('"&amp;A79&amp;"','"&amp;B79&amp;"','2022-10-10'),"</f>
+        <v>('bapak/ibu','6281230758311','2022-10-10'),</v>
+      </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="0" t="s">
@@ -1083,6 +1399,10 @@
       <c r="B80" s="1" t="s">
         <v>80</v>
       </c>
+      <c r="C80" s="0" t="str">
+        <f aca="false">"('"&amp;A80&amp;"','"&amp;B80&amp;"','2022-10-10'),"</f>
+        <v>('bapak/ibu','6281230758319','2022-10-10'),</v>
+      </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="0" t="s">
@@ -1091,6 +1411,10 @@
       <c r="B81" s="1" t="s">
         <v>81</v>
       </c>
+      <c r="C81" s="0" t="str">
+        <f aca="false">"('"&amp;A81&amp;"','"&amp;B81&amp;"','2022-10-10'),"</f>
+        <v>('bapak/ibu','6281230758321','2022-10-10'),</v>
+      </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="0" t="s">
@@ -1099,6 +1423,10 @@
       <c r="B82" s="1" t="s">
         <v>82</v>
       </c>
+      <c r="C82" s="0" t="str">
+        <f aca="false">"('"&amp;A82&amp;"','"&amp;B82&amp;"','2022-10-10'),"</f>
+        <v>('bapak/ibu','6281230758327','2022-10-10'),</v>
+      </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="0" t="s">
@@ -1107,6 +1435,10 @@
       <c r="B83" s="1" t="s">
         <v>83</v>
       </c>
+      <c r="C83" s="0" t="str">
+        <f aca="false">"('"&amp;A83&amp;"','"&amp;B83&amp;"','2022-10-10'),"</f>
+        <v>('bapak/ibu','6281230758328','2022-10-10'),</v>
+      </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="0" t="s">
@@ -1115,6 +1447,10 @@
       <c r="B84" s="1" t="s">
         <v>84</v>
       </c>
+      <c r="C84" s="0" t="str">
+        <f aca="false">"('"&amp;A84&amp;"','"&amp;B84&amp;"','2022-10-10'),"</f>
+        <v>('bapak/ibu','6281230758337','2022-10-10'),</v>
+      </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="0" t="s">
@@ -1123,6 +1459,10 @@
       <c r="B85" s="1" t="s">
         <v>85</v>
       </c>
+      <c r="C85" s="0" t="str">
+        <f aca="false">"('"&amp;A85&amp;"','"&amp;B85&amp;"','2022-10-10'),"</f>
+        <v>('bapak/ibu','6281230758330','2022-10-10'),</v>
+      </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="0" t="s">
@@ -1131,6 +1471,10 @@
       <c r="B86" s="1" t="s">
         <v>86</v>
       </c>
+      <c r="C86" s="0" t="str">
+        <f aca="false">"('"&amp;A86&amp;"','"&amp;B86&amp;"','2022-10-10'),"</f>
+        <v>('bapak/ibu','6281230758346','2022-10-10'),</v>
+      </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="0" t="s">
@@ -1139,6 +1483,10 @@
       <c r="B87" s="1" t="s">
         <v>87</v>
       </c>
+      <c r="C87" s="0" t="str">
+        <f aca="false">"('"&amp;A87&amp;"','"&amp;B87&amp;"','2022-10-10'),"</f>
+        <v>('bapak/ibu','6281230758348','2022-10-10'),</v>
+      </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="0" t="s">
@@ -1147,6 +1495,10 @@
       <c r="B88" s="1" t="s">
         <v>88</v>
       </c>
+      <c r="C88" s="0" t="str">
+        <f aca="false">"('"&amp;A88&amp;"','"&amp;B88&amp;"','2022-10-10'),"</f>
+        <v>('bapak/ibu','6281230758340','2022-10-10'),</v>
+      </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="0" t="s">
@@ -1155,6 +1507,10 @@
       <c r="B89" s="1" t="s">
         <v>89</v>
       </c>
+      <c r="C89" s="0" t="str">
+        <f aca="false">"('"&amp;A89&amp;"','"&amp;B89&amp;"','2022-10-10'),"</f>
+        <v>('bapak/ibu','6281230758453','2022-10-10'),</v>
+      </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="0" t="s">
@@ -1163,6 +1519,10 @@
       <c r="B90" s="1" t="s">
         <v>90</v>
       </c>
+      <c r="C90" s="0" t="str">
+        <f aca="false">"('"&amp;A90&amp;"','"&amp;B90&amp;"','2022-10-10'),"</f>
+        <v>('bapak/ibu','6281230758456','2022-10-10'),</v>
+      </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="0" t="s">
@@ -1171,6 +1531,10 @@
       <c r="B91" s="1" t="s">
         <v>91</v>
       </c>
+      <c r="C91" s="0" t="str">
+        <f aca="false">"('"&amp;A91&amp;"','"&amp;B91&amp;"','2022-10-10'),"</f>
+        <v>('bapak/ibu','6281230758471','2022-10-10'),</v>
+      </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="0" t="s">
@@ -1179,6 +1543,10 @@
       <c r="B92" s="1" t="s">
         <v>92</v>
       </c>
+      <c r="C92" s="0" t="str">
+        <f aca="false">"('"&amp;A92&amp;"','"&amp;B92&amp;"','2022-10-10'),"</f>
+        <v>('bapak/ibu','6281230758476','2022-10-10'),</v>
+      </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="0" t="s">
@@ -1187,6 +1555,10 @@
       <c r="B93" s="1" t="s">
         <v>93</v>
       </c>
+      <c r="C93" s="0" t="str">
+        <f aca="false">"('"&amp;A93&amp;"','"&amp;B93&amp;"','2022-10-10'),"</f>
+        <v>('bapak/ibu','6281230758488','2022-10-10'),</v>
+      </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="0" t="s">
@@ -1195,6 +1567,10 @@
       <c r="B94" s="1" t="s">
         <v>94</v>
       </c>
+      <c r="C94" s="0" t="str">
+        <f aca="false">"('"&amp;A94&amp;"','"&amp;B94&amp;"','2022-10-10'),"</f>
+        <v>('bapak/ibu','6281230758495','2022-10-10'),</v>
+      </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="0" t="s">
@@ -1203,6 +1579,10 @@
       <c r="B95" s="1" t="s">
         <v>95</v>
       </c>
+      <c r="C95" s="0" t="str">
+        <f aca="false">"('"&amp;A95&amp;"','"&amp;B95&amp;"','2022-10-10'),"</f>
+        <v>('bapak/ibu','6281230758401','2022-10-10'),</v>
+      </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="0" t="s">
@@ -1211,6 +1591,10 @@
       <c r="B96" s="1" t="s">
         <v>96</v>
       </c>
+      <c r="C96" s="0" t="str">
+        <f aca="false">"('"&amp;A96&amp;"','"&amp;B96&amp;"','2022-10-10'),"</f>
+        <v>('bapak/ibu','6281230758404','2022-10-10'),</v>
+      </c>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="0" t="s">
@@ -1219,6 +1603,10 @@
       <c r="B97" s="1" t="s">
         <v>97</v>
       </c>
+      <c r="C97" s="0" t="str">
+        <f aca="false">"('"&amp;A97&amp;"','"&amp;B97&amp;"','2022-10-10'),"</f>
+        <v>('bapak/ibu','6281230758425','2022-10-10'),</v>
+      </c>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="0" t="s">
@@ -1227,6 +1615,10 @@
       <c r="B98" s="1" t="s">
         <v>98</v>
       </c>
+      <c r="C98" s="0" t="str">
+        <f aca="false">"('"&amp;A98&amp;"','"&amp;B98&amp;"','2022-10-10'),"</f>
+        <v>('bapak/ibu','6281230758429','2022-10-10'),</v>
+      </c>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="0" t="s">
@@ -1235,6 +1627,10 @@
       <c r="B99" s="1" t="s">
         <v>99</v>
       </c>
+      <c r="C99" s="0" t="str">
+        <f aca="false">"('"&amp;A99&amp;"','"&amp;B99&amp;"','2022-10-10'),"</f>
+        <v>('bapak/ibu','6281230758432','2022-10-10'),</v>
+      </c>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="0" t="s">
@@ -1243,6 +1639,10 @@
       <c r="B100" s="1" t="s">
         <v>100</v>
       </c>
+      <c r="C100" s="0" t="str">
+        <f aca="false">"('"&amp;A100&amp;"','"&amp;B100&amp;"','2022-10-10'),"</f>
+        <v>('bapak/ibu','6281230758435','2022-10-10'),</v>
+      </c>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="0" t="s">
@@ -1251,6 +1651,10 @@
       <c r="B101" s="1" t="s">
         <v>101</v>
       </c>
+      <c r="C101" s="0" t="str">
+        <f aca="false">"('"&amp;A101&amp;"','"&amp;B101&amp;"','2022-10-10'),"</f>
+        <v>('bapak/ibu','6281230758443','2022-10-10'),</v>
+      </c>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="0" t="s">
@@ -1259,6 +1663,10 @@
       <c r="B102" s="1" t="s">
         <v>102</v>
       </c>
+      <c r="C102" s="0" t="str">
+        <f aca="false">"('"&amp;A102&amp;"','"&amp;B102&amp;"','2022-10-10'),"</f>
+        <v>('bapak/ibu','6281230758446','2022-10-10'),</v>
+      </c>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="0" t="s">
@@ -1266,6 +1674,10 @@
       </c>
       <c r="B103" s="1" t="s">
         <v>103</v>
+      </c>
+      <c r="C103" s="0" t="str">
+        <f aca="false">"('"&amp;A103&amp;"','"&amp;B103&amp;"','2022-10-10'),"</f>
+        <v>('bapak/ibu','6281230758448','2022-10-10'),</v>
       </c>
     </row>
   </sheetData>

--- a/ondebmh/onde_10102022 belum.xlsx
+++ b/ondebmh/onde_10102022 belum.xlsx
@@ -433,13 +433,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C103"/>
+  <dimension ref="A1:B103"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1:C103"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A28" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="14.55"/>
   </cols>
@@ -451,10 +451,6 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="str">
-        <f aca="false">"('"&amp;A1&amp;"','"&amp;B1&amp;"','2022-10-10'),"</f>
-        <v>('bapak/ibu','6281230757951','2022-10-10'),</v>
-      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
@@ -463,10 +459,6 @@
       <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="0" t="str">
-        <f aca="false">"('"&amp;A2&amp;"','"&amp;B2&amp;"','2022-10-10'),"</f>
-        <v>('bapak/ibu','6281230757956','2022-10-10'),</v>
-      </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
@@ -475,10 +467,6 @@
       <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="0" t="str">
-        <f aca="false">"('"&amp;A3&amp;"','"&amp;B3&amp;"','2022-10-10'),"</f>
-        <v>('bapak/ibu','6281230757959','2022-10-10'),</v>
-      </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
@@ -487,10 +475,6 @@
       <c r="B4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="0" t="str">
-        <f aca="false">"('"&amp;A4&amp;"','"&amp;B4&amp;"','2022-10-10'),"</f>
-        <v>('bapak/ibu','6281230757962','2022-10-10'),</v>
-      </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
@@ -499,10 +483,6 @@
       <c r="B5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="0" t="str">
-        <f aca="false">"('"&amp;A5&amp;"','"&amp;B5&amp;"','2022-10-10'),"</f>
-        <v>('bapak/ibu','6281230757971','2022-10-10'),</v>
-      </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
@@ -511,10 +491,6 @@
       <c r="B6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="0" t="str">
-        <f aca="false">"('"&amp;A6&amp;"','"&amp;B6&amp;"','2022-10-10'),"</f>
-        <v>('bapak/ibu','6281230757974','2022-10-10'),</v>
-      </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
@@ -523,10 +499,6 @@
       <c r="B7" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="0" t="str">
-        <f aca="false">"('"&amp;A7&amp;"','"&amp;B7&amp;"','2022-10-10'),"</f>
-        <v>('bapak/ibu','6281230757977','2022-10-10'),</v>
-      </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
@@ -535,10 +507,6 @@
       <c r="B8" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="0" t="str">
-        <f aca="false">"('"&amp;A8&amp;"','"&amp;B8&amp;"','2022-10-10'),"</f>
-        <v>('bapak/ibu','6281230757993','2022-10-10'),</v>
-      </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
@@ -547,10 +515,6 @@
       <c r="B9" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="0" t="str">
-        <f aca="false">"('"&amp;A9&amp;"','"&amp;B9&amp;"','2022-10-10'),"</f>
-        <v>('bapak/ibu','6281230757996','2022-10-10'),</v>
-      </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
@@ -559,10 +523,6 @@
       <c r="B10" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="0" t="str">
-        <f aca="false">"('"&amp;A10&amp;"','"&amp;B10&amp;"','2022-10-10'),"</f>
-        <v>('bapak/ibu','6281230757997','2022-10-10'),</v>
-      </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
@@ -571,10 +531,6 @@
       <c r="B11" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="0" t="str">
-        <f aca="false">"('"&amp;A11&amp;"','"&amp;B11&amp;"','2022-10-10'),"</f>
-        <v>('bapak/ibu','6281230757998','2022-10-10'),</v>
-      </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
@@ -583,10 +539,6 @@
       <c r="B12" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="0" t="str">
-        <f aca="false">"('"&amp;A12&amp;"','"&amp;B12&amp;"','2022-10-10'),"</f>
-        <v>('bapak/ibu','6281230757902','2022-10-10'),</v>
-      </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
@@ -595,10 +547,6 @@
       <c r="B13" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="0" t="str">
-        <f aca="false">"('"&amp;A13&amp;"','"&amp;B13&amp;"','2022-10-10'),"</f>
-        <v>('bapak/ibu','6281230757915','2022-10-10'),</v>
-      </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
@@ -607,10 +555,6 @@
       <c r="B14" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="0" t="str">
-        <f aca="false">"('"&amp;A14&amp;"','"&amp;B14&amp;"','2022-10-10'),"</f>
-        <v>('bapak/ibu','6281230757928','2022-10-10'),</v>
-      </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
@@ -619,10 +563,6 @@
       <c r="B15" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="0" t="str">
-        <f aca="false">"('"&amp;A15&amp;"','"&amp;B15&amp;"','2022-10-10'),"</f>
-        <v>('bapak/ibu','6281230757937','2022-10-10'),</v>
-      </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
@@ -631,10 +571,6 @@
       <c r="B16" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C16" s="0" t="str">
-        <f aca="false">"('"&amp;A16&amp;"','"&amp;B16&amp;"','2022-10-10'),"</f>
-        <v>('bapak/ibu','6281230757946','2022-10-10'),</v>
-      </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
@@ -643,10 +579,6 @@
       <c r="B17" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="0" t="str">
-        <f aca="false">"('"&amp;A17&amp;"','"&amp;B17&amp;"','2022-10-10'),"</f>
-        <v>('bapak/ibu','6281230757947','2022-10-10'),</v>
-      </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
@@ -655,10 +587,6 @@
       <c r="B18" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C18" s="0" t="str">
-        <f aca="false">"('"&amp;A18&amp;"','"&amp;B18&amp;"','2022-10-10'),"</f>
-        <v>('bapak/ibu','6281230757948','2022-10-10'),</v>
-      </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
@@ -667,10 +595,6 @@
       <c r="B19" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C19" s="0" t="str">
-        <f aca="false">"('"&amp;A19&amp;"','"&amp;B19&amp;"','2022-10-10'),"</f>
-        <v>('bapak/ibu','6281230757068','2022-10-10'),</v>
-      </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
@@ -679,10 +603,6 @@
       <c r="B20" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C20" s="0" t="str">
-        <f aca="false">"('"&amp;A20&amp;"','"&amp;B20&amp;"','2022-10-10'),"</f>
-        <v>('bapak/ibu','6281230757074','2022-10-10'),</v>
-      </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
@@ -691,10 +611,6 @@
       <c r="B21" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C21" s="0" t="str">
-        <f aca="false">"('"&amp;A21&amp;"','"&amp;B21&amp;"','2022-10-10'),"</f>
-        <v>('bapak/ibu','6281230757075','2022-10-10'),</v>
-      </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
@@ -703,10 +619,6 @@
       <c r="B22" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C22" s="0" t="str">
-        <f aca="false">"('"&amp;A22&amp;"','"&amp;B22&amp;"','2022-10-10'),"</f>
-        <v>('bapak/ibu','6281230757070','2022-10-10'),</v>
-      </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
@@ -715,10 +627,6 @@
       <c r="B23" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C23" s="0" t="str">
-        <f aca="false">"('"&amp;A23&amp;"','"&amp;B23&amp;"','2022-10-10'),"</f>
-        <v>('bapak/ibu','6281230757083','2022-10-10'),</v>
-      </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
@@ -727,10 +635,6 @@
       <c r="B24" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C24" s="0" t="str">
-        <f aca="false">"('"&amp;A24&amp;"','"&amp;B24&amp;"','2022-10-10'),"</f>
-        <v>('bapak/ibu','6281230757089','2022-10-10'),</v>
-      </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
@@ -739,10 +643,6 @@
       <c r="B25" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C25" s="0" t="str">
-        <f aca="false">"('"&amp;A25&amp;"','"&amp;B25&amp;"','2022-10-10'),"</f>
-        <v>('bapak/ibu','6281230757094','2022-10-10'),</v>
-      </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
@@ -751,10 +651,6 @@
       <c r="B26" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C26" s="0" t="str">
-        <f aca="false">"('"&amp;A26&amp;"','"&amp;B26&amp;"','2022-10-10'),"</f>
-        <v>('bapak/ibu','6281230757095','2022-10-10'),</v>
-      </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
@@ -763,10 +659,6 @@
       <c r="B27" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C27" s="0" t="str">
-        <f aca="false">"('"&amp;A27&amp;"','"&amp;B27&amp;"','2022-10-10'),"</f>
-        <v>('bapak/ibu','6281230757098','2022-10-10'),</v>
-      </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
@@ -775,10 +667,6 @@
       <c r="B28" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C28" s="0" t="str">
-        <f aca="false">"('"&amp;A28&amp;"','"&amp;B28&amp;"','2022-10-10'),"</f>
-        <v>('bapak/ibu','6281230757099','2022-10-10'),</v>
-      </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
@@ -787,10 +675,6 @@
       <c r="B29" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C29" s="0" t="str">
-        <f aca="false">"('"&amp;A29&amp;"','"&amp;B29&amp;"','2022-10-10'),"</f>
-        <v>('bapak/ibu','6281230757001','2022-10-10'),</v>
-      </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
@@ -799,10 +683,6 @@
       <c r="B30" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C30" s="0" t="str">
-        <f aca="false">"('"&amp;A30&amp;"','"&amp;B30&amp;"','2022-10-10'),"</f>
-        <v>('bapak/ibu','6281230757004','2022-10-10'),</v>
-      </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
@@ -811,10 +691,6 @@
       <c r="B31" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C31" s="0" t="str">
-        <f aca="false">"('"&amp;A31&amp;"','"&amp;B31&amp;"','2022-10-10'),"</f>
-        <v>('bapak/ibu','6281230757005','2022-10-10'),</v>
-      </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
@@ -823,10 +699,6 @@
       <c r="B32" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C32" s="0" t="str">
-        <f aca="false">"('"&amp;A32&amp;"','"&amp;B32&amp;"','2022-10-10'),"</f>
-        <v>('bapak/ibu','6281230757006','2022-10-10'),</v>
-      </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
@@ -835,10 +707,6 @@
       <c r="B33" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C33" s="0" t="str">
-        <f aca="false">"('"&amp;A33&amp;"','"&amp;B33&amp;"','2022-10-10'),"</f>
-        <v>('bapak/ibu','6281230757007','2022-10-10'),</v>
-      </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
@@ -847,10 +715,6 @@
       <c r="B34" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C34" s="0" t="str">
-        <f aca="false">"('"&amp;A34&amp;"','"&amp;B34&amp;"','2022-10-10'),"</f>
-        <v>('bapak/ibu','6281230757000','2022-10-10'),</v>
-      </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
@@ -859,10 +723,6 @@
       <c r="B35" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C35" s="0" t="str">
-        <f aca="false">"('"&amp;A35&amp;"','"&amp;B35&amp;"','2022-10-10'),"</f>
-        <v>('bapak/ibu','6281230757012','2022-10-10'),</v>
-      </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
@@ -871,10 +731,6 @@
       <c r="B36" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C36" s="0" t="str">
-        <f aca="false">"('"&amp;A36&amp;"','"&amp;B36&amp;"','2022-10-10'),"</f>
-        <v>('bapak/ibu','6281230757021','2022-10-10'),</v>
-      </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
@@ -883,10 +739,6 @@
       <c r="B37" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C37" s="0" t="str">
-        <f aca="false">"('"&amp;A37&amp;"','"&amp;B37&amp;"','2022-10-10'),"</f>
-        <v>('bapak/ibu','6281230757023','2022-10-10'),</v>
-      </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
@@ -895,10 +747,6 @@
       <c r="B38" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C38" s="0" t="str">
-        <f aca="false">"('"&amp;A38&amp;"','"&amp;B38&amp;"','2022-10-10'),"</f>
-        <v>('bapak/ibu','6281230757033','2022-10-10'),</v>
-      </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
@@ -907,10 +755,6 @@
       <c r="B39" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C39" s="0" t="str">
-        <f aca="false">"('"&amp;A39&amp;"','"&amp;B39&amp;"','2022-10-10'),"</f>
-        <v>('bapak/ibu','6281230757034','2022-10-10'),</v>
-      </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
@@ -919,10 +763,6 @@
       <c r="B40" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C40" s="0" t="str">
-        <f aca="false">"('"&amp;A40&amp;"','"&amp;B40&amp;"','2022-10-10'),"</f>
-        <v>('bapak/ibu','6281230757035','2022-10-10'),</v>
-      </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
@@ -931,10 +771,6 @@
       <c r="B41" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C41" s="0" t="str">
-        <f aca="false">"('"&amp;A41&amp;"','"&amp;B41&amp;"','2022-10-10'),"</f>
-        <v>('bapak/ibu','6281230757036','2022-10-10'),</v>
-      </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
@@ -943,10 +779,6 @@
       <c r="B42" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C42" s="0" t="str">
-        <f aca="false">"('"&amp;A42&amp;"','"&amp;B42&amp;"','2022-10-10'),"</f>
-        <v>('bapak/ibu','6281230757030','2022-10-10'),</v>
-      </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
@@ -955,10 +787,6 @@
       <c r="B43" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C43" s="0" t="str">
-        <f aca="false">"('"&amp;A43&amp;"','"&amp;B43&amp;"','2022-10-10'),"</f>
-        <v>('bapak/ibu','6281230757041','2022-10-10'),</v>
-      </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
@@ -967,10 +795,6 @@
       <c r="B44" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C44" s="0" t="str">
-        <f aca="false">"('"&amp;A44&amp;"','"&amp;B44&amp;"','2022-10-10'),"</f>
-        <v>('bapak/ibu','6281230757042','2022-10-10'),</v>
-      </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
@@ -979,10 +803,6 @@
       <c r="B45" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C45" s="0" t="str">
-        <f aca="false">"('"&amp;A45&amp;"','"&amp;B45&amp;"','2022-10-10'),"</f>
-        <v>('bapak/ibu','6281230757048','2022-10-10'),</v>
-      </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
@@ -991,10 +811,6 @@
       <c r="B46" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C46" s="0" t="str">
-        <f aca="false">"('"&amp;A46&amp;"','"&amp;B46&amp;"','2022-10-10'),"</f>
-        <v>('bapak/ibu','6281230757040','2022-10-10'),</v>
-      </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
@@ -1003,10 +819,6 @@
       <c r="B47" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C47" s="0" t="str">
-        <f aca="false">"('"&amp;A47&amp;"','"&amp;B47&amp;"','2022-10-10'),"</f>
-        <v>('bapak/ibu','6281230758152','2022-10-10'),</v>
-      </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
@@ -1015,10 +827,6 @@
       <c r="B48" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C48" s="0" t="str">
-        <f aca="false">"('"&amp;A48&amp;"','"&amp;B48&amp;"','2022-10-10'),"</f>
-        <v>('bapak/ibu','6281230758170','2022-10-10'),</v>
-      </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
@@ -1027,10 +835,6 @@
       <c r="B49" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C49" s="0" t="str">
-        <f aca="false">"('"&amp;A49&amp;"','"&amp;B49&amp;"','2022-10-10'),"</f>
-        <v>('bapak/ibu','6281230758181','2022-10-10'),</v>
-      </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
@@ -1039,10 +843,6 @@
       <c r="B50" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C50" s="0" t="str">
-        <f aca="false">"('"&amp;A50&amp;"','"&amp;B50&amp;"','2022-10-10'),"</f>
-        <v>('bapak/ibu','6281230758182','2022-10-10'),</v>
-      </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
@@ -1051,10 +851,6 @@
       <c r="B51" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C51" s="0" t="str">
-        <f aca="false">"('"&amp;A51&amp;"','"&amp;B51&amp;"','2022-10-10'),"</f>
-        <v>('bapak/ibu','6281230758187','2022-10-10'),</v>
-      </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
@@ -1063,10 +859,6 @@
       <c r="B52" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C52" s="0" t="str">
-        <f aca="false">"('"&amp;A52&amp;"','"&amp;B52&amp;"','2022-10-10'),"</f>
-        <v>('bapak/ibu','6281230758111','2022-10-10'),</v>
-      </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
@@ -1075,10 +867,6 @@
       <c r="B53" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C53" s="0" t="str">
-        <f aca="false">"('"&amp;A53&amp;"','"&amp;B53&amp;"','2022-10-10'),"</f>
-        <v>('bapak/ibu','6281230758131','2022-10-10'),</v>
-      </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
@@ -1087,10 +875,6 @@
       <c r="B54" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C54" s="0" t="str">
-        <f aca="false">"('"&amp;A54&amp;"','"&amp;B54&amp;"','2022-10-10'),"</f>
-        <v>('bapak/ibu','6281230758133','2022-10-10'),</v>
-      </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
@@ -1099,10 +883,6 @@
       <c r="B55" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C55" s="0" t="str">
-        <f aca="false">"('"&amp;A55&amp;"','"&amp;B55&amp;"','2022-10-10'),"</f>
-        <v>('bapak/ibu','6281230758136','2022-10-10'),</v>
-      </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
@@ -1111,10 +891,6 @@
       <c r="B56" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C56" s="0" t="str">
-        <f aca="false">"('"&amp;A56&amp;"','"&amp;B56&amp;"','2022-10-10'),"</f>
-        <v>('bapak/ibu','6281230758144','2022-10-10'),</v>
-      </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
@@ -1123,10 +899,6 @@
       <c r="B57" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C57" s="0" t="str">
-        <f aca="false">"('"&amp;A57&amp;"','"&amp;B57&amp;"','2022-10-10'),"</f>
-        <v>('bapak/ibu','6281230758250','2022-10-10'),</v>
-      </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
@@ -1135,10 +907,6 @@
       <c r="B58" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C58" s="0" t="str">
-        <f aca="false">"('"&amp;A58&amp;"','"&amp;B58&amp;"','2022-10-10'),"</f>
-        <v>('bapak/ibu','6281230758266','2022-10-10'),</v>
-      </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
@@ -1147,10 +915,6 @@
       <c r="B59" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="C59" s="0" t="str">
-        <f aca="false">"('"&amp;A59&amp;"','"&amp;B59&amp;"','2022-10-10'),"</f>
-        <v>('bapak/ibu','6281230758267','2022-10-10'),</v>
-      </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
@@ -1159,10 +923,6 @@
       <c r="B60" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C60" s="0" t="str">
-        <f aca="false">"('"&amp;A60&amp;"','"&amp;B60&amp;"','2022-10-10'),"</f>
-        <v>('bapak/ibu','6281230758260','2022-10-10'),</v>
-      </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="s">
@@ -1171,10 +931,6 @@
       <c r="B61" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="C61" s="0" t="str">
-        <f aca="false">"('"&amp;A61&amp;"','"&amp;B61&amp;"','2022-10-10'),"</f>
-        <v>('bapak/ibu','6281230758282','2022-10-10'),</v>
-      </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
@@ -1183,10 +939,6 @@
       <c r="B62" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C62" s="0" t="str">
-        <f aca="false">"('"&amp;A62&amp;"','"&amp;B62&amp;"','2022-10-10'),"</f>
-        <v>('bapak/ibu','6281230758285','2022-10-10'),</v>
-      </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="s">
@@ -1195,10 +947,6 @@
       <c r="B63" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C63" s="0" t="str">
-        <f aca="false">"('"&amp;A63&amp;"','"&amp;B63&amp;"','2022-10-10'),"</f>
-        <v>('bapak/ibu','6281230758286','2022-10-10'),</v>
-      </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="s">
@@ -1207,10 +955,6 @@
       <c r="B64" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="C64" s="0" t="str">
-        <f aca="false">"('"&amp;A64&amp;"','"&amp;B64&amp;"','2022-10-10'),"</f>
-        <v>('bapak/ibu','6281230758299','2022-10-10'),</v>
-      </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
@@ -1219,10 +963,6 @@
       <c r="B65" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="C65" s="0" t="str">
-        <f aca="false">"('"&amp;A65&amp;"','"&amp;B65&amp;"','2022-10-10'),"</f>
-        <v>('bapak/ibu','6281230758204','2022-10-10'),</v>
-      </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
@@ -1231,10 +971,6 @@
       <c r="B66" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="C66" s="0" t="str">
-        <f aca="false">"('"&amp;A66&amp;"','"&amp;B66&amp;"','2022-10-10'),"</f>
-        <v>('bapak/ibu','6281230758210','2022-10-10'),</v>
-      </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="s">
@@ -1243,10 +979,6 @@
       <c r="B67" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="C67" s="0" t="str">
-        <f aca="false">"('"&amp;A67&amp;"','"&amp;B67&amp;"','2022-10-10'),"</f>
-        <v>('bapak/ibu','6281230758234','2022-10-10'),</v>
-      </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="s">
@@ -1255,10 +987,6 @@
       <c r="B68" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C68" s="0" t="str">
-        <f aca="false">"('"&amp;A68&amp;"','"&amp;B68&amp;"','2022-10-10'),"</f>
-        <v>('bapak/ibu','6281230758353','2022-10-10'),</v>
-      </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="s">
@@ -1267,10 +995,6 @@
       <c r="B69" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="C69" s="0" t="str">
-        <f aca="false">"('"&amp;A69&amp;"','"&amp;B69&amp;"','2022-10-10'),"</f>
-        <v>('bapak/ibu','6281230758355','2022-10-10'),</v>
-      </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="0" t="s">
@@ -1279,10 +1003,6 @@
       <c r="B70" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="C70" s="0" t="str">
-        <f aca="false">"('"&amp;A70&amp;"','"&amp;B70&amp;"','2022-10-10'),"</f>
-        <v>('bapak/ibu','6281230758366','2022-10-10'),</v>
-      </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="s">
@@ -1291,10 +1011,6 @@
       <c r="B71" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C71" s="0" t="str">
-        <f aca="false">"('"&amp;A71&amp;"','"&amp;B71&amp;"','2022-10-10'),"</f>
-        <v>('bapak/ibu','6281230758375','2022-10-10'),</v>
-      </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="s">
@@ -1303,10 +1019,6 @@
       <c r="B72" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="C72" s="0" t="str">
-        <f aca="false">"('"&amp;A72&amp;"','"&amp;B72&amp;"','2022-10-10'),"</f>
-        <v>('bapak/ibu','6281230758377','2022-10-10'),</v>
-      </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="0" t="s">
@@ -1315,10 +1027,6 @@
       <c r="B73" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="C73" s="0" t="str">
-        <f aca="false">"('"&amp;A73&amp;"','"&amp;B73&amp;"','2022-10-10'),"</f>
-        <v>('bapak/ibu','6281230758383','2022-10-10'),</v>
-      </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="0" t="s">
@@ -1327,10 +1035,6 @@
       <c r="B74" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="C74" s="0" t="str">
-        <f aca="false">"('"&amp;A74&amp;"','"&amp;B74&amp;"','2022-10-10'),"</f>
-        <v>('bapak/ibu','6281230758386','2022-10-10'),</v>
-      </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="0" t="s">
@@ -1339,10 +1043,6 @@
       <c r="B75" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="C75" s="0" t="str">
-        <f aca="false">"('"&amp;A75&amp;"','"&amp;B75&amp;"','2022-10-10'),"</f>
-        <v>('bapak/ibu','6281230758397','2022-10-10'),</v>
-      </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="0" t="s">
@@ -1351,10 +1051,6 @@
       <c r="B76" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="C76" s="0" t="str">
-        <f aca="false">"('"&amp;A76&amp;"','"&amp;B76&amp;"','2022-10-10'),"</f>
-        <v>('bapak/ibu','6281230758307','2022-10-10'),</v>
-      </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="0" t="s">
@@ -1363,10 +1059,6 @@
       <c r="B77" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="C77" s="0" t="str">
-        <f aca="false">"('"&amp;A77&amp;"','"&amp;B77&amp;"','2022-10-10'),"</f>
-        <v>('bapak/ibu','6281230758308','2022-10-10'),</v>
-      </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="0" t="s">
@@ -1375,10 +1067,6 @@
       <c r="B78" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="C78" s="0" t="str">
-        <f aca="false">"('"&amp;A78&amp;"','"&amp;B78&amp;"','2022-10-10'),"</f>
-        <v>('bapak/ibu','6281230758309','2022-10-10'),</v>
-      </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="0" t="s">
@@ -1387,10 +1075,6 @@
       <c r="B79" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="C79" s="0" t="str">
-        <f aca="false">"('"&amp;A79&amp;"','"&amp;B79&amp;"','2022-10-10'),"</f>
-        <v>('bapak/ibu','6281230758311','2022-10-10'),</v>
-      </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="0" t="s">
@@ -1399,10 +1083,6 @@
       <c r="B80" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="C80" s="0" t="str">
-        <f aca="false">"('"&amp;A80&amp;"','"&amp;B80&amp;"','2022-10-10'),"</f>
-        <v>('bapak/ibu','6281230758319','2022-10-10'),</v>
-      </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="0" t="s">
@@ -1411,10 +1091,6 @@
       <c r="B81" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="C81" s="0" t="str">
-        <f aca="false">"('"&amp;A81&amp;"','"&amp;B81&amp;"','2022-10-10'),"</f>
-        <v>('bapak/ibu','6281230758321','2022-10-10'),</v>
-      </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="0" t="s">
@@ -1423,10 +1099,6 @@
       <c r="B82" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="C82" s="0" t="str">
-        <f aca="false">"('"&amp;A82&amp;"','"&amp;B82&amp;"','2022-10-10'),"</f>
-        <v>('bapak/ibu','6281230758327','2022-10-10'),</v>
-      </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="0" t="s">
@@ -1435,10 +1107,6 @@
       <c r="B83" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="C83" s="0" t="str">
-        <f aca="false">"('"&amp;A83&amp;"','"&amp;B83&amp;"','2022-10-10'),"</f>
-        <v>('bapak/ibu','6281230758328','2022-10-10'),</v>
-      </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="0" t="s">
@@ -1447,10 +1115,6 @@
       <c r="B84" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="C84" s="0" t="str">
-        <f aca="false">"('"&amp;A84&amp;"','"&amp;B84&amp;"','2022-10-10'),"</f>
-        <v>('bapak/ibu','6281230758337','2022-10-10'),</v>
-      </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="0" t="s">
@@ -1459,10 +1123,6 @@
       <c r="B85" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="C85" s="0" t="str">
-        <f aca="false">"('"&amp;A85&amp;"','"&amp;B85&amp;"','2022-10-10'),"</f>
-        <v>('bapak/ibu','6281230758330','2022-10-10'),</v>
-      </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="0" t="s">
@@ -1471,10 +1131,6 @@
       <c r="B86" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="C86" s="0" t="str">
-        <f aca="false">"('"&amp;A86&amp;"','"&amp;B86&amp;"','2022-10-10'),"</f>
-        <v>('bapak/ibu','6281230758346','2022-10-10'),</v>
-      </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="0" t="s">
@@ -1483,10 +1139,6 @@
       <c r="B87" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="C87" s="0" t="str">
-        <f aca="false">"('"&amp;A87&amp;"','"&amp;B87&amp;"','2022-10-10'),"</f>
-        <v>('bapak/ibu','6281230758348','2022-10-10'),</v>
-      </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="0" t="s">
@@ -1495,10 +1147,6 @@
       <c r="B88" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="C88" s="0" t="str">
-        <f aca="false">"('"&amp;A88&amp;"','"&amp;B88&amp;"','2022-10-10'),"</f>
-        <v>('bapak/ibu','6281230758340','2022-10-10'),</v>
-      </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="0" t="s">
@@ -1507,10 +1155,6 @@
       <c r="B89" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="C89" s="0" t="str">
-        <f aca="false">"('"&amp;A89&amp;"','"&amp;B89&amp;"','2022-10-10'),"</f>
-        <v>('bapak/ibu','6281230758453','2022-10-10'),</v>
-      </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="0" t="s">
@@ -1519,10 +1163,6 @@
       <c r="B90" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="C90" s="0" t="str">
-        <f aca="false">"('"&amp;A90&amp;"','"&amp;B90&amp;"','2022-10-10'),"</f>
-        <v>('bapak/ibu','6281230758456','2022-10-10'),</v>
-      </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="0" t="s">
@@ -1531,10 +1171,6 @@
       <c r="B91" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="C91" s="0" t="str">
-        <f aca="false">"('"&amp;A91&amp;"','"&amp;B91&amp;"','2022-10-10'),"</f>
-        <v>('bapak/ibu','6281230758471','2022-10-10'),</v>
-      </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="0" t="s">
@@ -1543,10 +1179,6 @@
       <c r="B92" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="C92" s="0" t="str">
-        <f aca="false">"('"&amp;A92&amp;"','"&amp;B92&amp;"','2022-10-10'),"</f>
-        <v>('bapak/ibu','6281230758476','2022-10-10'),</v>
-      </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="0" t="s">
@@ -1555,10 +1187,6 @@
       <c r="B93" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="C93" s="0" t="str">
-        <f aca="false">"('"&amp;A93&amp;"','"&amp;B93&amp;"','2022-10-10'),"</f>
-        <v>('bapak/ibu','6281230758488','2022-10-10'),</v>
-      </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="0" t="s">
@@ -1567,10 +1195,6 @@
       <c r="B94" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="C94" s="0" t="str">
-        <f aca="false">"('"&amp;A94&amp;"','"&amp;B94&amp;"','2022-10-10'),"</f>
-        <v>('bapak/ibu','6281230758495','2022-10-10'),</v>
-      </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="0" t="s">
@@ -1579,10 +1203,6 @@
       <c r="B95" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="C95" s="0" t="str">
-        <f aca="false">"('"&amp;A95&amp;"','"&amp;B95&amp;"','2022-10-10'),"</f>
-        <v>('bapak/ibu','6281230758401','2022-10-10'),</v>
-      </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="0" t="s">
@@ -1591,10 +1211,6 @@
       <c r="B96" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="C96" s="0" t="str">
-        <f aca="false">"('"&amp;A96&amp;"','"&amp;B96&amp;"','2022-10-10'),"</f>
-        <v>('bapak/ibu','6281230758404','2022-10-10'),</v>
-      </c>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="0" t="s">
@@ -1603,10 +1219,6 @@
       <c r="B97" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="C97" s="0" t="str">
-        <f aca="false">"('"&amp;A97&amp;"','"&amp;B97&amp;"','2022-10-10'),"</f>
-        <v>('bapak/ibu','6281230758425','2022-10-10'),</v>
-      </c>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="0" t="s">
@@ -1615,10 +1227,6 @@
       <c r="B98" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="C98" s="0" t="str">
-        <f aca="false">"('"&amp;A98&amp;"','"&amp;B98&amp;"','2022-10-10'),"</f>
-        <v>('bapak/ibu','6281230758429','2022-10-10'),</v>
-      </c>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="0" t="s">
@@ -1627,10 +1235,6 @@
       <c r="B99" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="C99" s="0" t="str">
-        <f aca="false">"('"&amp;A99&amp;"','"&amp;B99&amp;"','2022-10-10'),"</f>
-        <v>('bapak/ibu','6281230758432','2022-10-10'),</v>
-      </c>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="0" t="s">
@@ -1639,10 +1243,6 @@
       <c r="B100" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="C100" s="0" t="str">
-        <f aca="false">"('"&amp;A100&amp;"','"&amp;B100&amp;"','2022-10-10'),"</f>
-        <v>('bapak/ibu','6281230758435','2022-10-10'),</v>
-      </c>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="0" t="s">
@@ -1651,10 +1251,6 @@
       <c r="B101" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="C101" s="0" t="str">
-        <f aca="false">"('"&amp;A101&amp;"','"&amp;B101&amp;"','2022-10-10'),"</f>
-        <v>('bapak/ibu','6281230758443','2022-10-10'),</v>
-      </c>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="0" t="s">
@@ -1663,10 +1259,6 @@
       <c r="B102" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="C102" s="0" t="str">
-        <f aca="false">"('"&amp;A102&amp;"','"&amp;B102&amp;"','2022-10-10'),"</f>
-        <v>('bapak/ibu','6281230758446','2022-10-10'),</v>
-      </c>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="0" t="s">
@@ -1674,10 +1266,6 @@
       </c>
       <c r="B103" s="1" t="s">
         <v>103</v>
-      </c>
-      <c r="C103" s="0" t="str">
-        <f aca="false">"('"&amp;A103&amp;"','"&amp;B103&amp;"','2022-10-10'),"</f>
-        <v>('bapak/ibu','6281230758448','2022-10-10'),</v>
       </c>
     </row>
   </sheetData>
